--- a/data/fichier_hopitaux_avec_coordonnees_avec_privacitee.xlsx
+++ b/data/fichier_hopitaux_avec_coordonnees_avec_privacitee.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexisCalvez\Downloads\Projet Le Point\Palmarès Hôpitaux 2021\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apassan/Documents/LePoint/BackendChatbotHopitaux/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45F0625-0AA9-4769-8E38-707ADDB82BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB1A7D6-F7F9-734B-B510-DE5A9858B2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$591</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2732,6 +2735,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3078,16 +3082,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="I578" sqref="I578"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="D403" sqref="D403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3138,7 +3142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3172,7 +3176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3189,7 +3193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3206,7 +3210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3223,7 +3227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3240,7 +3244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3257,7 +3261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3274,7 +3278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3291,7 +3295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3308,7 +3312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3325,7 +3329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -3342,7 +3346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3376,7 +3380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3393,7 +3397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -3427,7 +3431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -3444,7 +3448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -3495,7 +3499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -3512,7 +3516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -3529,7 +3533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -3546,7 +3550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -3563,7 +3567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3580,7 +3584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -3597,7 +3601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -3614,7 +3618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -3631,7 +3635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3665,7 +3669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -3699,7 +3703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -3716,7 +3720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -3733,7 +3737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -3750,7 +3754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -3767,7 +3771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -3801,7 +3805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -3818,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -3852,7 +3856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -3903,7 +3907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -3937,7 +3941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -3954,7 +3958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -3988,7 +3992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -4005,7 +4009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -4039,7 +4043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -4056,7 +4060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -4073,7 +4077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -4090,7 +4094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -4107,7 +4111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>123</v>
       </c>
@@ -4124,7 +4128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>125</v>
       </c>
@@ -4141,7 +4145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>127</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -4175,7 +4179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>133</v>
       </c>
@@ -4209,7 +4213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>135</v>
       </c>
@@ -4226,7 +4230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -4243,7 +4247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>142</v>
       </c>
@@ -4277,7 +4281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -4294,7 +4298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -4311,7 +4315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>148</v>
       </c>
@@ -4328,7 +4332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>150</v>
       </c>
@@ -4345,7 +4349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>154</v>
       </c>
@@ -4379,7 +4383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>156</v>
       </c>
@@ -4396,7 +4400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -4413,7 +4417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>160</v>
       </c>
@@ -4430,7 +4434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>162</v>
       </c>
@@ -4447,7 +4451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -4481,7 +4485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>168</v>
       </c>
@@ -4498,7 +4502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>170</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -4532,7 +4536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>174</v>
       </c>
@@ -4549,7 +4553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -4566,7 +4570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -4583,7 +4587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>180</v>
       </c>
@@ -4600,7 +4604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -4617,7 +4621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -4634,7 +4638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>186</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>188</v>
       </c>
@@ -4668,7 +4672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -4685,7 +4689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>192</v>
       </c>
@@ -4702,7 +4706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>194</v>
       </c>
@@ -4719,7 +4723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>196</v>
       </c>
@@ -4736,7 +4740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>197</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>199</v>
       </c>
@@ -4770,7 +4774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>201</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>203</v>
       </c>
@@ -4804,7 +4808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>205</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>207</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>209</v>
       </c>
@@ -4855,7 +4859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>211</v>
       </c>
@@ -4872,7 +4876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>213</v>
       </c>
@@ -4889,7 +4893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>215</v>
       </c>
@@ -4906,7 +4910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>217</v>
       </c>
@@ -4923,7 +4927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>219</v>
       </c>
@@ -4940,7 +4944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>221</v>
       </c>
@@ -4957,7 +4961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>223</v>
       </c>
@@ -4974,7 +4978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>225</v>
       </c>
@@ -4991,7 +4995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>227</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>229</v>
       </c>
@@ -5025,7 +5029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>231</v>
       </c>
@@ -5042,7 +5046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>233</v>
       </c>
@@ -5059,7 +5063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>235</v>
       </c>
@@ -5076,7 +5080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>237</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>238</v>
       </c>
@@ -5110,7 +5114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>240</v>
       </c>
@@ -5127,7 +5131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>242</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -5161,7 +5165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -5178,7 +5182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -5195,7 +5199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -5212,7 +5216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>248</v>
       </c>
@@ -5229,7 +5233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>249</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -5263,7 +5267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>254</v>
       </c>
@@ -5297,7 +5301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>256</v>
       </c>
@@ -5314,7 +5318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>258</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>259</v>
       </c>
@@ -5348,7 +5352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>260</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -5382,7 +5386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>262</v>
       </c>
@@ -5399,7 +5403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>263</v>
       </c>
@@ -5416,7 +5420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>264</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>265</v>
       </c>
@@ -5450,7 +5454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>266</v>
       </c>
@@ -5467,7 +5471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>267</v>
       </c>
@@ -5484,7 +5488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>268</v>
       </c>
@@ -5501,7 +5505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>270</v>
       </c>
@@ -5518,7 +5522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>271</v>
       </c>
@@ -5535,7 +5539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>272</v>
       </c>
@@ -5552,7 +5556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>273</v>
       </c>
@@ -5569,7 +5573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>274</v>
       </c>
@@ -5586,7 +5590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>275</v>
       </c>
@@ -5603,7 +5607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>276</v>
       </c>
@@ -5620,7 +5624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>278</v>
       </c>
@@ -5637,7 +5641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>279</v>
       </c>
@@ -5654,7 +5658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>281</v>
       </c>
@@ -5671,7 +5675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>282</v>
       </c>
@@ -5688,7 +5692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>283</v>
       </c>
@@ -5705,7 +5709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>285</v>
       </c>
@@ -5722,7 +5726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>287</v>
       </c>
@@ -5739,7 +5743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>289</v>
       </c>
@@ -5756,7 +5760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>290</v>
       </c>
@@ -5773,7 +5777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>292</v>
       </c>
@@ -5790,7 +5794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>294</v>
       </c>
@@ -5807,7 +5811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>296</v>
       </c>
@@ -5824,7 +5828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>297</v>
       </c>
@@ -5841,7 +5845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>299</v>
       </c>
@@ -5858,7 +5862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>300</v>
       </c>
@@ -5875,7 +5879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>302</v>
       </c>
@@ -5892,7 +5896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>304</v>
       </c>
@@ -5909,7 +5913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>306</v>
       </c>
@@ -5926,7 +5930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>308</v>
       </c>
@@ -5943,7 +5947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>310</v>
       </c>
@@ -5960,7 +5964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>312</v>
       </c>
@@ -5977,7 +5981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>313</v>
       </c>
@@ -5994,7 +5998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>314</v>
       </c>
@@ -6011,7 +6015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>315</v>
       </c>
@@ -6028,7 +6032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>316</v>
       </c>
@@ -6045,7 +6049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>318</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>320</v>
       </c>
@@ -6079,7 +6083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>321</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>322</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>323</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>324</v>
       </c>
@@ -6147,7 +6151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>325</v>
       </c>
@@ -6164,7 +6168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>327</v>
       </c>
@@ -6181,7 +6185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>328</v>
       </c>
@@ -6198,7 +6202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>330</v>
       </c>
@@ -6215,7 +6219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>331</v>
       </c>
@@ -6232,7 +6236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>332</v>
       </c>
@@ -6249,7 +6253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>333</v>
       </c>
@@ -6266,7 +6270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>334</v>
       </c>
@@ -6283,7 +6287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>336</v>
       </c>
@@ -6300,7 +6304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>338</v>
       </c>
@@ -6317,7 +6321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>340</v>
       </c>
@@ -6334,7 +6338,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>342</v>
       </c>
@@ -6351,7 +6355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>344</v>
       </c>
@@ -6368,7 +6372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>346</v>
       </c>
@@ -6385,7 +6389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>347</v>
       </c>
@@ -6402,7 +6406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>349</v>
       </c>
@@ -6419,7 +6423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>350</v>
       </c>
@@ -6436,7 +6440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>351</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>352</v>
       </c>
@@ -6470,7 +6474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>353</v>
       </c>
@@ -6487,7 +6491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>355</v>
       </c>
@@ -6504,7 +6508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>356</v>
       </c>
@@ -6521,7 +6525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>357</v>
       </c>
@@ -6538,7 +6542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>359</v>
       </c>
@@ -6555,7 +6559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>360</v>
       </c>
@@ -6572,7 +6576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>362</v>
       </c>
@@ -6589,7 +6593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>364</v>
       </c>
@@ -6606,7 +6610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>366</v>
       </c>
@@ -6623,7 +6627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>368</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>369</v>
       </c>
@@ -6657,7 +6661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>371</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>372</v>
       </c>
@@ -6691,7 +6695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>374</v>
       </c>
@@ -6708,7 +6712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>376</v>
       </c>
@@ -6725,7 +6729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>377</v>
       </c>
@@ -6742,7 +6746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>379</v>
       </c>
@@ -6759,7 +6763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>380</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>381</v>
       </c>
@@ -6793,7 +6797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>382</v>
       </c>
@@ -6810,7 +6814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>383</v>
       </c>
@@ -6827,7 +6831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>384</v>
       </c>
@@ -6844,7 +6848,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>385</v>
       </c>
@@ -6861,7 +6865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>387</v>
       </c>
@@ -6878,7 +6882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>389</v>
       </c>
@@ -6895,7 +6899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>390</v>
       </c>
@@ -6912,7 +6916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>391</v>
       </c>
@@ -6929,7 +6933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>392</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>394</v>
       </c>
@@ -6963,7 +6967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>395</v>
       </c>
@@ -6980,7 +6984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>397</v>
       </c>
@@ -6997,7 +7001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>399</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>401</v>
       </c>
@@ -7031,7 +7035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>402</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>403</v>
       </c>
@@ -7065,7 +7069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>404</v>
       </c>
@@ -7082,7 +7086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>405</v>
       </c>
@@ -7099,7 +7103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>406</v>
       </c>
@@ -7116,7 +7120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>407</v>
       </c>
@@ -7133,7 +7137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>408</v>
       </c>
@@ -7150,7 +7154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>409</v>
       </c>
@@ -7167,7 +7171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>411</v>
       </c>
@@ -7184,7 +7188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>412</v>
       </c>
@@ -7201,7 +7205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>413</v>
       </c>
@@ -7218,7 +7222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>414</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>415</v>
       </c>
@@ -7252,7 +7256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>416</v>
       </c>
@@ -7269,7 +7273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>418</v>
       </c>
@@ -7286,7 +7290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>420</v>
       </c>
@@ -7303,7 +7307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>422</v>
       </c>
@@ -7320,7 +7324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>423</v>
       </c>
@@ -7337,7 +7341,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>425</v>
       </c>
@@ -7354,7 +7358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>426</v>
       </c>
@@ -7371,7 +7375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>427</v>
       </c>
@@ -7388,7 +7392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>428</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>429</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>431</v>
       </c>
@@ -7439,7 +7443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>432</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>434</v>
       </c>
@@ -7473,7 +7477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>436</v>
       </c>
@@ -7490,7 +7494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>437</v>
       </c>
@@ -7507,7 +7511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>438</v>
       </c>
@@ -7524,7 +7528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>439</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>441</v>
       </c>
@@ -7558,7 +7562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>442</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>444</v>
       </c>
@@ -7592,7 +7596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>446</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>448</v>
       </c>
@@ -7626,7 +7630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>450</v>
       </c>
@@ -7643,7 +7647,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>452</v>
       </c>
@@ -7660,7 +7664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>453</v>
       </c>
@@ -7677,7 +7681,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>454</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>455</v>
       </c>
@@ -7711,7 +7715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>456</v>
       </c>
@@ -7728,7 +7732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>457</v>
       </c>
@@ -7745,7 +7749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>458</v>
       </c>
@@ -7762,7 +7766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>459</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>460</v>
       </c>
@@ -7796,7 +7800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>462</v>
       </c>
@@ -7813,7 +7817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>464</v>
       </c>
@@ -7830,7 +7834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>465</v>
       </c>
@@ -7847,7 +7851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>466</v>
       </c>
@@ -7864,7 +7868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>467</v>
       </c>
@@ -7881,7 +7885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>468</v>
       </c>
@@ -7898,7 +7902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>469</v>
       </c>
@@ -7915,7 +7919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>470</v>
       </c>
@@ -7932,7 +7936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>472</v>
       </c>
@@ -7949,7 +7953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>473</v>
       </c>
@@ -7966,7 +7970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>474</v>
       </c>
@@ -7983,7 +7987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>475</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>476</v>
       </c>
@@ -8017,7 +8021,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>477</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>479</v>
       </c>
@@ -8051,7 +8055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>480</v>
       </c>
@@ -8068,7 +8072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>481</v>
       </c>
@@ -8085,7 +8089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>482</v>
       </c>
@@ -8102,7 +8106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>484</v>
       </c>
@@ -8119,7 +8123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>485</v>
       </c>
@@ -8136,7 +8140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>486</v>
       </c>
@@ -8153,7 +8157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>487</v>
       </c>
@@ -8170,7 +8174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>488</v>
       </c>
@@ -8187,7 +8191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>490</v>
       </c>
@@ -8204,7 +8208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>491</v>
       </c>
@@ -8221,7 +8225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>492</v>
       </c>
@@ -8238,7 +8242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>493</v>
       </c>
@@ -8255,7 +8259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>495</v>
       </c>
@@ -8272,7 +8276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>496</v>
       </c>
@@ -8289,7 +8293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>498</v>
       </c>
@@ -8306,7 +8310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>499</v>
       </c>
@@ -8323,7 +8327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>500</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>502</v>
       </c>
@@ -8357,7 +8361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>503</v>
       </c>
@@ -8374,7 +8378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>504</v>
       </c>
@@ -8391,7 +8395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>506</v>
       </c>
@@ -8408,7 +8412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>507</v>
       </c>
@@ -8425,7 +8429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>508</v>
       </c>
@@ -8442,7 +8446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>509</v>
       </c>
@@ -8459,7 +8463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>511</v>
       </c>
@@ -8476,7 +8480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>513</v>
       </c>
@@ -8493,7 +8497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>515</v>
       </c>
@@ -8510,7 +8514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>517</v>
       </c>
@@ -8527,7 +8531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>518</v>
       </c>
@@ -8544,7 +8548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>519</v>
       </c>
@@ -8561,7 +8565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>520</v>
       </c>
@@ -8578,7 +8582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>521</v>
       </c>
@@ -8595,7 +8599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>522</v>
       </c>
@@ -8612,7 +8616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>523</v>
       </c>
@@ -8629,7 +8633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>524</v>
       </c>
@@ -8646,7 +8650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>525</v>
       </c>
@@ -8663,7 +8667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>526</v>
       </c>
@@ -8680,7 +8684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>528</v>
       </c>
@@ -8697,7 +8701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>530</v>
       </c>
@@ -8714,7 +8718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>532</v>
       </c>
@@ -8731,7 +8735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>533</v>
       </c>
@@ -8748,7 +8752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>534</v>
       </c>
@@ -8765,7 +8769,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>535</v>
       </c>
@@ -8782,7 +8786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>537</v>
       </c>
@@ -8799,7 +8803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>539</v>
       </c>
@@ -8816,7 +8820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>541</v>
       </c>
@@ -8833,7 +8837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>542</v>
       </c>
@@ -8850,7 +8854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>543</v>
       </c>
@@ -8867,7 +8871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>545</v>
       </c>
@@ -8884,7 +8888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>546</v>
       </c>
@@ -8901,7 +8905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>547</v>
       </c>
@@ -8918,7 +8922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>549</v>
       </c>
@@ -8935,7 +8939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>551</v>
       </c>
@@ -8952,7 +8956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>553</v>
       </c>
@@ -8969,7 +8973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>554</v>
       </c>
@@ -8986,7 +8990,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>555</v>
       </c>
@@ -9003,7 +9007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>556</v>
       </c>
@@ -9020,7 +9024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>558</v>
       </c>
@@ -9037,7 +9041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>559</v>
       </c>
@@ -9054,7 +9058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>561</v>
       </c>
@@ -9071,7 +9075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>562</v>
       </c>
@@ -9088,7 +9092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>564</v>
       </c>
@@ -9105,7 +9109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>565</v>
       </c>
@@ -9122,7 +9126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>566</v>
       </c>
@@ -9139,7 +9143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>567</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>568</v>
       </c>
@@ -9173,7 +9177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>569</v>
       </c>
@@ -9190,7 +9194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>570</v>
       </c>
@@ -9207,7 +9211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>571</v>
       </c>
@@ -9224,7 +9228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>573</v>
       </c>
@@ -9241,7 +9245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>575</v>
       </c>
@@ -9258,7 +9262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>576</v>
       </c>
@@ -9275,7 +9279,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>578</v>
       </c>
@@ -9292,7 +9296,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>579</v>
       </c>
@@ -9309,7 +9313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>580</v>
       </c>
@@ -9326,7 +9330,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>581</v>
       </c>
@@ -9343,7 +9347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>582</v>
       </c>
@@ -9360,7 +9364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>583</v>
       </c>
@@ -9377,7 +9381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>584</v>
       </c>
@@ -9394,7 +9398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>585</v>
       </c>
@@ -9411,7 +9415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>586</v>
       </c>
@@ -9428,7 +9432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>587</v>
       </c>
@@ -9445,7 +9449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>588</v>
       </c>
@@ -9462,7 +9466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>589</v>
       </c>
@@ -9479,7 +9483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>590</v>
       </c>
@@ -9496,7 +9500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>592</v>
       </c>
@@ -9513,7 +9517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>594</v>
       </c>
@@ -9530,7 +9534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>595</v>
       </c>
@@ -9547,7 +9551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>597</v>
       </c>
@@ -9564,7 +9568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>599</v>
       </c>
@@ -9581,7 +9585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>601</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>603</v>
       </c>
@@ -9615,7 +9619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>605</v>
       </c>
@@ -9632,7 +9636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>607</v>
       </c>
@@ -9649,7 +9653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>608</v>
       </c>
@@ -9666,7 +9670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>609</v>
       </c>
@@ -9683,7 +9687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>611</v>
       </c>
@@ -9700,7 +9704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>613</v>
       </c>
@@ -9717,7 +9721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>614</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>615</v>
       </c>
@@ -9751,7 +9755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>617</v>
       </c>
@@ -9768,7 +9772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>619</v>
       </c>
@@ -9785,7 +9789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>620</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>621</v>
       </c>
@@ -9819,7 +9823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>623</v>
       </c>
@@ -9836,7 +9840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>625</v>
       </c>
@@ -9853,7 +9857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>626</v>
       </c>
@@ -9870,7 +9874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>627</v>
       </c>
@@ -9887,7 +9891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>629</v>
       </c>
@@ -9904,18 +9908,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>631</v>
       </c>
       <c r="B402" t="s">
         <v>632</v>
       </c>
+      <c r="C402">
+        <v>48.8489</v>
+      </c>
+      <c r="D402">
+        <v>2.7715999999999998</v>
+      </c>
       <c r="E402" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>633</v>
       </c>
@@ -9932,7 +9942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>635</v>
       </c>
@@ -9949,7 +9959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>636</v>
       </c>
@@ -9966,7 +9976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>637</v>
       </c>
@@ -9983,7 +9993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>638</v>
       </c>
@@ -10000,7 +10010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>639</v>
       </c>
@@ -10017,7 +10027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>641</v>
       </c>
@@ -10034,7 +10044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>642</v>
       </c>
@@ -10051,7 +10061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>644</v>
       </c>
@@ -10068,7 +10078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>646</v>
       </c>
@@ -10085,7 +10095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>648</v>
       </c>
@@ -10102,7 +10112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>649</v>
       </c>
@@ -10119,7 +10129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>650</v>
       </c>
@@ -10136,7 +10146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>652</v>
       </c>
@@ -10153,7 +10163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>653</v>
       </c>
@@ -10170,7 +10180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>655</v>
       </c>
@@ -10187,7 +10197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>656</v>
       </c>
@@ -10204,7 +10214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>658</v>
       </c>
@@ -10221,7 +10231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>659</v>
       </c>
@@ -10238,7 +10248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>660</v>
       </c>
@@ -10255,7 +10265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>662</v>
       </c>
@@ -10272,7 +10282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>663</v>
       </c>
@@ -10289,7 +10299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>664</v>
       </c>
@@ -10306,7 +10316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>666</v>
       </c>
@@ -10323,7 +10333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>667</v>
       </c>
@@ -10340,7 +10350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>668</v>
       </c>
@@ -10357,7 +10367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>670</v>
       </c>
@@ -10374,7 +10384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>671</v>
       </c>
@@ -10391,7 +10401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>672</v>
       </c>
@@ -10408,7 +10418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>673</v>
       </c>
@@ -10425,7 +10435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>674</v>
       </c>
@@ -10442,7 +10452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>675</v>
       </c>
@@ -10459,7 +10469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>677</v>
       </c>
@@ -10476,7 +10486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>679</v>
       </c>
@@ -10493,7 +10503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>681</v>
       </c>
@@ -10510,7 +10520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>682</v>
       </c>
@@ -10527,7 +10537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>683</v>
       </c>
@@ -10544,7 +10554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>685</v>
       </c>
@@ -10561,7 +10571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>686</v>
       </c>
@@ -10578,7 +10588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>687</v>
       </c>
@@ -10595,7 +10605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>689</v>
       </c>
@@ -10612,7 +10622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>690</v>
       </c>
@@ -10629,7 +10639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>691</v>
       </c>
@@ -10646,7 +10656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>692</v>
       </c>
@@ -10663,7 +10673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>694</v>
       </c>
@@ -10680,7 +10690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>695</v>
       </c>
@@ -10697,7 +10707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>696</v>
       </c>
@@ -10714,7 +10724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>697</v>
       </c>
@@ -10731,7 +10741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>698</v>
       </c>
@@ -10748,7 +10758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>700</v>
       </c>
@@ -10765,7 +10775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>701</v>
       </c>
@@ -10782,7 +10792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>702</v>
       </c>
@@ -10799,7 +10809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>703</v>
       </c>
@@ -10816,7 +10826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>704</v>
       </c>
@@ -10833,7 +10843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>705</v>
       </c>
@@ -10850,7 +10860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>706</v>
       </c>
@@ -10867,7 +10877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>707</v>
       </c>
@@ -10884,7 +10894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>708</v>
       </c>
@@ -10901,7 +10911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>709</v>
       </c>
@@ -10918,7 +10928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>710</v>
       </c>
@@ -10935,7 +10945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>711</v>
       </c>
@@ -10952,7 +10962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>712</v>
       </c>
@@ -10969,7 +10979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>714</v>
       </c>
@@ -10986,7 +10996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>715</v>
       </c>
@@ -11003,7 +11013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>716</v>
       </c>
@@ -11020,7 +11030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>718</v>
       </c>
@@ -11037,7 +11047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>719</v>
       </c>
@@ -11054,7 +11064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>720</v>
       </c>
@@ -11071,7 +11081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>722</v>
       </c>
@@ -11088,7 +11098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>723</v>
       </c>
@@ -11105,7 +11115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>725</v>
       </c>
@@ -11122,7 +11132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>726</v>
       </c>
@@ -11139,7 +11149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>728</v>
       </c>
@@ -11156,7 +11166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>729</v>
       </c>
@@ -11173,7 +11183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>730</v>
       </c>
@@ -11190,7 +11200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>732</v>
       </c>
@@ -11207,7 +11217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>734</v>
       </c>
@@ -11224,7 +11234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>736</v>
       </c>
@@ -11241,7 +11251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>738</v>
       </c>
@@ -11258,7 +11268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>739</v>
       </c>
@@ -11275,7 +11285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>741</v>
       </c>
@@ -11292,7 +11302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>742</v>
       </c>
@@ -11309,7 +11319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>743</v>
       </c>
@@ -11326,7 +11336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>745</v>
       </c>
@@ -11343,7 +11353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>747</v>
       </c>
@@ -11360,7 +11370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>748</v>
       </c>
@@ -11377,7 +11387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>749</v>
       </c>
@@ -11394,7 +11404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>750</v>
       </c>
@@ -11411,7 +11421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>752</v>
       </c>
@@ -11428,7 +11438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>753</v>
       </c>
@@ -11445,7 +11455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>755</v>
       </c>
@@ -11462,7 +11472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>757</v>
       </c>
@@ -11479,7 +11489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>758</v>
       </c>
@@ -11496,7 +11506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>760</v>
       </c>
@@ -11513,7 +11523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>762</v>
       </c>
@@ -11530,7 +11540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>763</v>
       </c>
@@ -11547,7 +11557,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>764</v>
       </c>
@@ -11564,7 +11574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>766</v>
       </c>
@@ -11581,7 +11591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>768</v>
       </c>
@@ -11598,7 +11608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>770</v>
       </c>
@@ -11615,7 +11625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>771</v>
       </c>
@@ -11632,7 +11642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>772</v>
       </c>
@@ -11649,7 +11659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>773</v>
       </c>
@@ -11666,7 +11676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>774</v>
       </c>
@@ -11683,7 +11693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>776</v>
       </c>
@@ -11700,7 +11710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>777</v>
       </c>
@@ -11717,7 +11727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>779</v>
       </c>
@@ -11734,7 +11744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>781</v>
       </c>
@@ -11751,7 +11761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>782</v>
       </c>
@@ -11768,7 +11778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>783</v>
       </c>
@@ -11785,7 +11795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>785</v>
       </c>
@@ -11802,7 +11812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>787</v>
       </c>
@@ -11819,7 +11829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>788</v>
       </c>
@@ -11836,7 +11846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>789</v>
       </c>
@@ -11853,7 +11863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>791</v>
       </c>
@@ -11870,7 +11880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>792</v>
       </c>
@@ -11887,7 +11897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>793</v>
       </c>
@@ -11904,7 +11914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>794</v>
       </c>
@@ -11921,7 +11931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>795</v>
       </c>
@@ -11938,7 +11948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>796</v>
       </c>
@@ -11955,7 +11965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>797</v>
       </c>
@@ -11972,7 +11982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>798</v>
       </c>
@@ -11989,7 +11999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>800</v>
       </c>
@@ -12006,7 +12016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>802</v>
       </c>
@@ -12023,7 +12033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>803</v>
       </c>
@@ -12040,7 +12050,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>804</v>
       </c>
@@ -12057,7 +12067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>806</v>
       </c>
@@ -12074,7 +12084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>808</v>
       </c>
@@ -12091,7 +12101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>809</v>
       </c>
@@ -12108,7 +12118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>811</v>
       </c>
@@ -12125,7 +12135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>812</v>
       </c>
@@ -12142,7 +12152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>813</v>
       </c>
@@ -12159,7 +12169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>814</v>
       </c>
@@ -12176,7 +12186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>816</v>
       </c>
@@ -12193,7 +12203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>817</v>
       </c>
@@ -12210,7 +12220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>819</v>
       </c>
@@ -12227,7 +12237,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>821</v>
       </c>
@@ -12244,7 +12254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>822</v>
       </c>
@@ -12261,7 +12271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>823</v>
       </c>
@@ -12278,7 +12288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>824</v>
       </c>
@@ -12295,7 +12305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>826</v>
       </c>
@@ -12312,7 +12322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>828</v>
       </c>
@@ -12329,7 +12339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>829</v>
       </c>
@@ -12346,7 +12356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>831</v>
       </c>
@@ -12363,7 +12373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>833</v>
       </c>
@@ -12380,7 +12390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>834</v>
       </c>
@@ -12397,7 +12407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>836</v>
       </c>
@@ -12414,7 +12424,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>837</v>
       </c>
@@ -12431,7 +12441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>839</v>
       </c>
@@ -12448,7 +12458,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>841</v>
       </c>
@@ -12465,7 +12475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>842</v>
       </c>
@@ -12482,7 +12492,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>844</v>
       </c>
@@ -12499,7 +12509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>845</v>
       </c>
@@ -12516,7 +12526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>847</v>
       </c>
@@ -12533,7 +12543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>849</v>
       </c>
@@ -12550,7 +12560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>850</v>
       </c>
@@ -12567,7 +12577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>852</v>
       </c>
@@ -12584,7 +12594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>854</v>
       </c>
@@ -12601,7 +12611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>855</v>
       </c>
@@ -12618,7 +12628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>856</v>
       </c>
@@ -12635,7 +12645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>857</v>
       </c>
@@ -12652,7 +12662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>858</v>
       </c>
@@ -12669,7 +12679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>860</v>
       </c>
@@ -12686,7 +12696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>861</v>
       </c>
@@ -12703,7 +12713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>862</v>
       </c>
@@ -12720,7 +12730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>863</v>
       </c>
@@ -12737,7 +12747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>865</v>
       </c>
@@ -12754,7 +12764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>866</v>
       </c>
@@ -12771,7 +12781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>867</v>
       </c>
@@ -12788,7 +12798,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>868</v>
       </c>
@@ -12805,7 +12815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>869</v>
       </c>
@@ -12822,7 +12832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>870</v>
       </c>
@@ -12839,7 +12849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>871</v>
       </c>
@@ -12856,7 +12866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>872</v>
       </c>
@@ -12873,7 +12883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>874</v>
       </c>
@@ -12890,7 +12900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>875</v>
       </c>
@@ -12907,7 +12917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>877</v>
       </c>
@@ -12924,7 +12934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>878</v>
       </c>
@@ -12941,7 +12951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>879</v>
       </c>
@@ -12958,7 +12968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>880</v>
       </c>
@@ -12975,7 +12985,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>881</v>
       </c>
@@ -12992,7 +13002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>883</v>
       </c>
@@ -13009,7 +13019,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>884</v>
       </c>
@@ -13026,7 +13036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>886</v>
       </c>
@@ -13043,7 +13053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>887</v>
       </c>
@@ -13060,7 +13070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>889</v>
       </c>
@@ -13077,7 +13087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>891</v>
       </c>
@@ -13094,7 +13104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>893</v>
       </c>
@@ -13111,7 +13121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>894</v>
       </c>
